--- a/Full Execution Results/TestResult.xlsx
+++ b/Full Execution Results/TestResult.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Miscellaneous" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Commissions!$A$1:$E$1449</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Miscellaneous!$A$1:$E$725</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10860" uniqueCount="2293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10872" uniqueCount="2300">
   <si>
     <t>DateandTimeOfExecution</t>
   </si>
@@ -6898,6 +6898,27 @@
   </si>
   <si>
     <t>Telephone Operator screen is displayed by Clicking on Quick Key, which is as expected .</t>
+  </si>
+  <si>
+    <t>bcnvxncvzxnvcnxvnvzxcx</t>
+  </si>
+  <si>
+    <t>zczxmxzvm</t>
+  </si>
+  <si>
+    <t>xv</t>
+  </si>
+  <si>
+    <t>xzv</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>z</t>
   </si>
 </sst>
 </file>
@@ -6993,6 +7014,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -7040,7 +7064,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7075,7 +7099,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7284,10 +7308,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E725"/>
+  <dimension ref="A1:E741"/>
   <sheetViews>
-    <sheetView topLeftCell="B319" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D213" sqref="D213"/>
+    <sheetView tabSelected="1" topLeftCell="A718" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A741" sqref="A741"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19625,6 +19649,66 @@
         <v>558</v>
       </c>
     </row>
+    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A729" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A730" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="731" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A731" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="732" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A732" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="734" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A734" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="735" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A735" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="736" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A736" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A737" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A738" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A739" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A740" t="s">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A741" t="s">
+        <v>2299</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E725"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19635,8 +19719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1449"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
